--- a/CASUAL/LA ONT/BERGADO, MARILOU BAYOT.xlsx
+++ b/CASUAL/LA ONT/BERGADO, MARILOU BAYOT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>12/18-22,26-29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-46)</t>
   </si>
 </sst>
 </file>
@@ -943,7 +946,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,7 +989,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1050,7 +1053,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1110,7 +1113,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,7 +1179,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,7 +1242,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1340,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1399,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1464,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1507,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1582,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1768,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1834,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1892,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1958,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2014,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2089,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2132,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2198,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2254,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,10 +2699,10 @@
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2865,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17</v>
+        <v>16.903999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3679,11 +3682,15 @@
       <c r="A48" s="40">
         <v>44682</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -5203,7 +5210,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5267,10 +5274,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>46</v>
+      </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/BERGADO, MARILOU BAYOT.xlsx
+++ b/CASUAL/LA ONT/BERGADO, MARILOU BAYOT.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>UT(0-0-46)</t>
+  </si>
+  <si>
+    <t>UT(0-0-57)</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +992,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1056,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1116,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +1182,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,7 +1245,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1343,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1402,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1467,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1510,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1585,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1771,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1837,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1895,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1961,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2017,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2092,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2135,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2201,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2257,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,7 +2705,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2868,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.903999999999996</v>
+        <v>16.784999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3886,11 +3889,15 @@
       <c r="A57" s="40">
         <v>44896</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C57" s="13">
         <v>1.25</v>
       </c>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39">
+        <v>0.11900000000000001</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
@@ -5275,11 +5282,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>9.6000000000000002E-2</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
